--- a/Hijos.xlsx
+++ b/Hijos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\UTEC\2024-1\DBP\proyecto-backend-control_parental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE12F220-7592-407A-ABD4-7A647764926D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5899424-474E-45A0-BDCB-A44CC790A0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35FA02B7-48E7-4353-86C5-9B65C7A230C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Nombre</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Apellido</t>
   </si>
   <si>
-    <t>Edad</t>
-  </si>
-  <si>
     <t>Michael</t>
   </si>
   <si>
@@ -69,16 +66,60 @@
   </si>
   <si>
     <t>Naganime</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>michalhinojosa@gmail.com</t>
+  </si>
+  <si>
+    <t>Valeria</t>
+  </si>
+  <si>
+    <t>Arana</t>
+  </si>
+  <si>
+    <t>lucianocaballero@gmail.com</t>
+  </si>
+  <si>
+    <t>Samira</t>
+  </si>
+  <si>
+    <t>Pardo</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Rothguiesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braulio </t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>erickmuro@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,13 +142,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B5BA6B-435F-4392-A8DA-4C5F3E11662A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,54 +500,108 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9CEC6117-A937-4C76-B282-6EB21FBC1926}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{049B6847-3ED3-45B6-9055-3DA99767FF6C}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{3A2FC8CC-105A-468D-B80B-8132C3DE7ADE}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E0D17BBA-95B0-4519-B5C1-388B0EE66C14}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{D9D0B82D-60FB-4B10-8754-18F8836F33AB}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{1AC20E77-0D8E-45BE-A307-5B2FB89A5027}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{58B3409D-DFB0-44E8-8459-5E87BFAD9D43}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{ABDA83E3-AC98-4E7E-AA57-F8FE5DE8E9DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>